--- a/data/recurrence_data.xlsx
+++ b/data/recurrence_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mserr\Documents\GitHub\Datos-Jesus-Perez-Ortega\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mserr\OneDrive - ifc.unam.mx\Documentos\GitHub\neuronal-ensembles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC9CAD6-04ED-4394-8461-A3747BE3970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC68563-E6F6-4614-B673-96F9F702CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -608,31 +608,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -803,7 +803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -859,7 +859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -971,7 +971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>11</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>8</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>11</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>12</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>13</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>14</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>7</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>6</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>6</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>7</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>10</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>7</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>8</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>10</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>3</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>5</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>6</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>7</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4</v>
       </c>
@@ -16932,42 +16932,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R291" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="0.03"/>
-        <customFilter operator="lessThanOrEqual" val="1"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="0.75"/>
-        <customFilter operator="lessThanOrEqual" val="0.8"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="2.5000000000000001E-2"/>
-        <customFilter operator="lessThanOrEqual" val="3.5000000000000003E-2"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="0.82"/>
-        <customFilter operator="lessThanOrEqual" val="0.89"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="lessThan" val="70"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Dyskinesia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R291" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16976,7 +16941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20983CC2-6212-49DD-B583-F7001D272C03}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
